--- a/InputData/elec/SLF/System Load Factor.xlsx
+++ b/InputData/elec/SLF/System Load Factor.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\Models\eps-1.4.1-india-wipA\InputData\elec\SLF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\SLF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467F45A8-F07A-414F-91DD-4C39F3A0E78B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SLF" sheetId="2" r:id="rId2"/>
+    <sheet name="NEP" sheetId="4" r:id="rId2"/>
+    <sheet name="SLF" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>SLF System Load Factor</t>
   </si>
@@ -28,31 +38,37 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>System Load Factor</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>Power System Operation Corporation Ltd.</t>
-  </si>
-  <si>
-    <t>Electricity Load Factor in Indian Power System</t>
-  </si>
-  <si>
-    <t>15.All India, Region wise and State wise Analysis</t>
-  </si>
-  <si>
-    <t>We use the Average Annual Load Factor 2008-2015</t>
+    <t>Central Electricity Authority</t>
+  </si>
+  <si>
+    <t>National Electricity Plan - Vol I</t>
+  </si>
+  <si>
+    <t>Sec 1.2.5, pp 1.6</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/committee/nep/nep_jan_2018.pdf</t>
+  </si>
+  <si>
+    <t>This variable represents the system load factor - the ratio of the average load over a given period to the peak load</t>
+  </si>
+  <si>
+    <t>We use the latest available SLF for 2016-17 for India.</t>
+  </si>
+  <si>
+    <t>System Load Factor (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,6 +127,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182273</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1618FE6-D959-474E-A318-D5F60846058A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="314325"/>
+          <a:ext cx="9297698" cy="2305372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -189,6 +254,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -224,6 +306,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,12 +498,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -421,30 +518,42 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -453,29 +562,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFA1469-CF81-4F42-8B07-8E827DE49D70}">
+  <dimension ref="A16:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.84</v>
+        <v>0.82599999999999996</v>
       </c>
     </row>
   </sheetData>
